--- a/data_download/transcriptome_compression_download_log.xlsx
+++ b/data_download/transcriptome_compression_download_log.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Athaliana" sheetId="2" r:id="rId1"/>
+    <sheet name="Mmusculs" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Download</t>
   </si>
@@ -42,16 +43,46 @@
     <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression_server_only/Mmusculus/download_04June2015/NCBI_SRA_Mmusculus_download_04June2015_prelim.mat</t>
   </si>
   <si>
-    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression_server_only/Mmusculus/download_11July2015/Mmusculus_download_11July2015_assembled_srafish_output.mat</t>
-  </si>
-  <si>
     <t xml:space="preserve">The archive was assembled prior to the July 11 download, and therefore represents all samples from the June 4 download. The June 11 download actually represents a completion of the June 4 download. The June 4 download was terminated in order to examine the data in hand, and was resumed July 11. </t>
   </si>
   <si>
     <t>$killdevil:/ms/home/s/b/sbiswas/transcriptome_compression/Mmusculus/NCBI_SRA_Mmusculus_successful_downloads_11July2015_download_compiled_17Sept2015.tgz</t>
   </si>
   <si>
-    <t>Compiled Sept 17, 2015</t>
+    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression/Mmusculus/Mmusculus_download_11July2015_assembled_srafish_output.mat</t>
+  </si>
+  <si>
+    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression/Mmusculus/Mmusculus_download_19Sept2015_assembled_srafish_output.mat</t>
+  </si>
+  <si>
+    <t>Archive compiled Sept 17, 2015</t>
+  </si>
+  <si>
+    <t>Archive compiled Sept 23, 2015</t>
+  </si>
+  <si>
+    <t>A. thaliana</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression_server_only/Athaliana/download_02May2015/NCBI_SRA_assembled_data_02May2015.mat</t>
+  </si>
+  <si>
+    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression_server_only/Athaliana/download_18May2015/NCBI_SRA_assembled_data_18May2015.mat</t>
+  </si>
+  <si>
+    <t>$killdevil:/proj/dangl_lab/sbiswas/GitHub/data/transcriptome_compression_server_only/Athaliana/download_06Sept2015/Athaliana_download_06Sept2015_assembled_srafish_output.mat</t>
+  </si>
+  <si>
+    <t>Never built archive</t>
+  </si>
+  <si>
+    <t>Archived Sept 23, 2015</t>
+  </si>
+  <si>
+    <t>$killdevil:/ms/home/s/b/sbiswas/transcriptome_compression/Athaliana/NCBI_SRA_Athaliana_successful_downloads_06Sept2015_download_compiled_23Sept2015.tgz</t>
   </si>
 </sst>
 </file>
@@ -108,23 +139,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,10 +494,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <v>42126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>42142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>42253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -495,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -503,13 +627,24 @@
         <v>42196</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>42266</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data_download/transcriptome_compression_download_log.xlsx
+++ b/data_download/transcriptome_compression_download_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Athaliana" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Download</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>$killdevil:/ms/home/s/b/sbiswas/transcriptome_compression/Athaliana/NCBI_SRA_Athaliana_successful_downloads_06Sept2015_download_compiled_23Sept2015.tgz</t>
+  </si>
+  <si>
+    <t>$killdevil:/ms/home/s/b/sbiswas/transcriptome_compression/Mmusculus/NCBI_SRA_Mmusculus_successful_downloads_19Sept2015_download_compiled_23Sept2015.tgz</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,7 +584,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -640,6 +643,9 @@
       <c r="A6" s="2">
         <v>42266</v>
       </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
